--- a/image/event/class/H30クラス企画と一言アピール文.xlsx
+++ b/image/event/class/H30クラス企画と一言アピール文.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\br151426\Desktop\高専祭パンフ局\H30 パンフ製作\クラス企画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi151327\Desktop\kosenfes2\image\event\class\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B98510DE-1087-405A-8F28-313523FC7EE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +898,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1313,10 +1314,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1771,30 +1772,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="F8" r:id="rId8"/>
-    <hyperlink ref="F9" r:id="rId9"/>
-    <hyperlink ref="F10" r:id="rId10"/>
-    <hyperlink ref="F11" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="H12" r:id="rId13"/>
-    <hyperlink ref="F13" r:id="rId14"/>
-    <hyperlink ref="F14" r:id="rId15"/>
-    <hyperlink ref="F15" r:id="rId16"/>
-    <hyperlink ref="F16" r:id="rId17"/>
-    <hyperlink ref="F17" r:id="rId18"/>
-    <hyperlink ref="F18" r:id="rId19"/>
-    <hyperlink ref="F19" r:id="rId20"/>
-    <hyperlink ref="F20" r:id="rId21"/>
-    <hyperlink ref="F21" r:id="rId22"/>
-    <hyperlink ref="F2" r:id="rId23"/>
-    <hyperlink ref="F3" r:id="rId24"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F2" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F3" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
